--- a/master_thesis/input/MLB_stats_2017.xlsx
+++ b/master_thesis/input/MLB_stats_2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="full_season" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="team_pitching" sheetId="4" r:id="rId4"/>
     <sheet name="team_batting" sheetId="5" r:id="rId5"/>
     <sheet name="team_standings" sheetId="6" r:id="rId6"/>
+    <sheet name="FA" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -101547,7 +101548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -103756,4 +103757,18 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>